--- a/Departments/HUM.xlsx
+++ b/Departments/HUM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C0EDEA5-9CD0-41A8-A311-EBAAF21A2A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208396ED-7863-442F-B96A-E6C1E4A430A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80B0780C-8A7F-4C97-8109-ED0A78DB4595}"/>
+    <workbookView xWindow="2840" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{80B0780C-8A7F-4C97-8109-ED0A78DB4595}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -541,6 +535,12 @@
   </si>
   <si>
     <t>ARCHAEOLGY</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -895,7 +895,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I68"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -914,1818 +914,1818 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
         <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
-      </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
         <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
         <v>61</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
         <v>64</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
         <v>83</v>
       </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
         <v>84</v>
-      </c>
-      <c r="E33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" t="s">
         <v>11</v>
       </c>
-      <c r="D36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" t="s">
-        <v>13</v>
-      </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
         <v>96</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
         <v>101</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" t="s">
         <v>11</v>
       </c>
-      <c r="D46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" t="s">
         <v>11</v>
       </c>
-      <c r="D49" t="s">
-        <v>119</v>
-      </c>
-      <c r="E49" t="s">
-        <v>13</v>
-      </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
         <v>120</v>
-      </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
         <v>123</v>
-      </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" t="s">
         <v>11</v>
       </c>
-      <c r="D53" t="s">
-        <v>129</v>
-      </c>
-      <c r="E53" t="s">
-        <v>13</v>
-      </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
         <v>130</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s">
-        <v>131</v>
-      </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
         <v>133</v>
-      </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
         <v>140</v>
-      </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s">
-        <v>141</v>
-      </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
         <v>147</v>
-      </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s">
-        <v>148</v>
-      </c>
-      <c r="E61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>158</v>
+      </c>
+      <c r="H67" t="s">
         <v>160</v>
-      </c>
-      <c r="D67" t="s">
-        <v>161</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>160</v>
-      </c>
-      <c r="H67" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" t="s">
         <v>163</v>
       </c>
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
         <v>164</v>
       </c>
-      <c r="D68" t="s">
+      <c r="H68" t="s">
         <v>165</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>166</v>
-      </c>
-      <c r="H68" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/HUM.xlsx
+++ b/Departments/HUM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208396ED-7863-442F-B96A-E6C1E4A430A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4019E6-3492-4019-9479-383D7514630C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{80B0780C-8A7F-4C97-8109-ED0A78DB4595}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{80B0780C-8A7F-4C97-8109-ED0A78DB4595}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="180">
   <si>
     <t>Course_Code</t>
   </si>
@@ -99,9 +99,6 @@
     <t>HUM130</t>
   </si>
   <si>
-    <t>HUM 130 - Introduction to Religious Studies</t>
-  </si>
-  <si>
     <t>HUM150</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>HUM 309 - Literatures and the Arts Across Cultures</t>
   </si>
   <si>
-    <t>REQ - 45 units. Prerequisite:    45 units.  Students with credit for HS 309 or WL 309 under this topic, or HS 303 under the title "Reflection on the Greek Civil War" may not take this course for further credit. Breadth-Humanities</t>
-  </si>
-  <si>
     <t>HUM311</t>
   </si>
   <si>
@@ -213,18 +207,12 @@
     <t>HUM 318 - Heroines in Greece and Beyond: Political Representations of Women in Film and Literature</t>
   </si>
   <si>
-    <t>REQ-45 units.  Students with credit for HS 318 or GSWS 318 or HS 303 under the title "Political Representations of Women in Film and Literature" may not take this course for further credit. Breadth-Humanities.</t>
-  </si>
-  <si>
     <t>HUM320</t>
   </si>
   <si>
     <t>HUM 320 - Cross-Cultural Philosophy in the Humanities</t>
   </si>
   <si>
-    <t>REQ-45 units. Breadth-Humanities.</t>
-  </si>
-  <si>
     <t>HUM321W</t>
   </si>
   <si>
@@ -408,9 +396,6 @@
     <t>HUM 319 - Greeks Go Global: From Antigone to Atwood</t>
   </si>
   <si>
-    <t>REQ-REQ-45 units.  Students with credit for HUM 418, HS 418 or HUM 480 or HS 403 under the title "After Modernities: Greeks Go Global" may not take this course for further credit. Breadth-Humanities.</t>
-  </si>
-  <si>
     <t>HUM332</t>
   </si>
   <si>
@@ -438,9 +423,6 @@
     <t>HUM 340 - Great Cities in Their Time</t>
   </si>
   <si>
-    <t>REQ-45 units.   Breadth-Humanities.</t>
-  </si>
-  <si>
     <t>HUM350</t>
   </si>
   <si>
@@ -541,6 +523,60 @@
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>HUM 130 - Introduction to Religious Studies: Ancient, Abrahamic, and Secular Religions</t>
+  </si>
+  <si>
+    <t>REQ-Students with credit for HS 232 or HUM 216 may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>HUM306</t>
+  </si>
+  <si>
+    <t>HUM 306 - Art, Culture, and Place</t>
+  </si>
+  <si>
+    <t>REQ-45 units. Recommended: HUM 106 or HUM 222. Students with credit for HUM 360 under the title "Art of the Land" may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-45 units. Students with credit for HS 309 or WL 309 under this topic, or HS 303 under the title "Reflection on the Greek Civil War" may not take this course for further credit. Breadth-Humanities</t>
+  </si>
+  <si>
+    <t>REQ-45 units. Students with credit for HS 318 or GSWS 318 or HS 303 under the title "Political Representations of Women in Film and Literature" may not take this course for further credit. Breadth-Humanities.</t>
+  </si>
+  <si>
+    <t>REQ-45 units.  Students with credit for HUM 418, HS 418 or HUM 480 or HS 403 under the title "After Modernities: Greeks Go Global" may not take this course for further credit. Breadth-Humanities.</t>
+  </si>
+  <si>
+    <t>HUM329</t>
+  </si>
+  <si>
+    <t>HUM 329 - Health in Global Humanities</t>
+  </si>
+  <si>
+    <t>REQ-45 units. Recommended: HUM 130. Breadth-Humanities.</t>
+  </si>
+  <si>
+    <t>REQ-45 units. Recommended: HUM 102W.</t>
+  </si>
+  <si>
+    <t>HUM347</t>
+  </si>
+  <si>
+    <t>HUM 347 - Religion, Culture, and Society</t>
+  </si>
+  <si>
+    <t>REQ-45 units. Students with credit for HUM 360 under the title "Islam and Muslims in the West" may not take this course for further credit. Breadth-Humanities</t>
+  </si>
+  <si>
+    <t>REQ- 45 units. Students with credit for HIST 308, HS 308, HIST 317, HS 317, HS 349 or HIST 349 may not take this course for further credit. Breadth-Humanities.</t>
+  </si>
+  <si>
+    <t>HUM356</t>
+  </si>
+  <si>
+    <t>HUM 356 - Thinking About War: Perspectives on Conflict from Thucydides to the Present</t>
   </si>
 </sst>
 </file>
@@ -892,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAA7CFE-97E6-4FB1-BD59-3EC05CC12A96}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -914,10 +950,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -931,42 +967,42 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -975,15 +1011,15 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -992,10 +1028,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1009,7 +1045,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1018,10 +1054,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1035,7 +1071,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1044,7 +1080,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1061,7 +1097,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1070,7 +1106,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1087,7 +1123,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1096,7 +1132,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1113,7 +1149,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1122,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1139,7 +1175,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1148,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1165,7 +1201,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1174,7 +1210,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -1191,7 +1227,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1200,7 +1236,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1217,7 +1253,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1226,7 +1262,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1243,7 +1279,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1252,10 +1288,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -1267,12 +1303,12 @@
         <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1281,7 +1317,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1298,7 +1334,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1307,7 +1343,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1324,7 +1360,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1333,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1350,7 +1386,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1359,7 +1395,7 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -1376,7 +1412,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1385,7 +1421,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1398,14 +1434,11 @@
       </c>
       <c r="H19" t="s">
         <v>14</v>
-      </c>
-      <c r="I19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1414,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1431,7 +1464,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1440,10 +1473,10 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1453,11 +1486,14 @@
       </c>
       <c r="H21" t="s">
         <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1466,7 +1502,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -1479,14 +1515,11 @@
       </c>
       <c r="H22" t="s">
         <v>14</v>
-      </c>
-      <c r="I22" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1495,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -1510,12 +1543,12 @@
         <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1524,10 +1557,10 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1537,14 +1570,11 @@
       </c>
       <c r="H24" t="s">
         <v>14</v>
-      </c>
-      <c r="I24" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1553,7 +1583,7 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -1568,12 +1598,12 @@
         <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1582,7 +1612,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -1595,14 +1625,11 @@
       </c>
       <c r="H26" t="s">
         <v>14</v>
-      </c>
-      <c r="I26" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -1611,7 +1638,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -1628,7 +1655,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1637,7 +1664,7 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -1654,7 +1681,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1663,7 +1690,7 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -1680,7 +1707,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1689,7 +1716,7 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -1706,7 +1733,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1715,10 +1742,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1732,7 +1759,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -1741,7 +1768,7 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -1758,7 +1785,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1767,10 +1794,10 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1780,14 +1807,11 @@
       </c>
       <c r="H33" t="s">
         <v>14</v>
-      </c>
-      <c r="I33" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1796,7 +1820,7 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
@@ -1809,11 +1833,14 @@
       </c>
       <c r="H34" t="s">
         <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -1822,7 +1849,7 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -1835,11 +1862,14 @@
       </c>
       <c r="H35" t="s">
         <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -1848,10 +1878,10 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -1865,7 +1895,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -1874,10 +1904,10 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -1891,7 +1921,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -1900,10 +1930,10 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -1917,7 +1947,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -1926,10 +1956,10 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -1941,12 +1971,12 @@
         <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -1955,7 +1985,7 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -1968,11 +1998,14 @@
       </c>
       <c r="H40" t="s">
         <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -1981,7 +2014,7 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -1996,12 +2029,12 @@
         <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -2010,7 +2043,7 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -2027,7 +2060,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -2036,10 +2069,10 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -2049,11 +2082,14 @@
       </c>
       <c r="H43" t="s">
         <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -2062,7 +2098,7 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -2079,7 +2115,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -2088,7 +2124,7 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2105,7 +2141,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -2114,10 +2150,10 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -2127,11 +2163,14 @@
       </c>
       <c r="H46" t="s">
         <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -2140,7 +2179,7 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -2157,7 +2196,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -2166,7 +2205,7 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2181,12 +2220,12 @@
         <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -2195,7 +2234,7 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -2209,10 +2248,13 @@
       <c r="H49" t="s">
         <v>14</v>
       </c>
+      <c r="I49" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -2221,10 +2263,10 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -2236,12 +2278,12 @@
         <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -2250,7 +2292,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
@@ -2263,14 +2305,11 @@
       </c>
       <c r="H51" t="s">
         <v>14</v>
-      </c>
-      <c r="I51" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -2279,7 +2318,7 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -2292,11 +2331,14 @@
       </c>
       <c r="H52" t="s">
         <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -2305,10 +2347,10 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
@@ -2320,7 +2362,7 @@
         <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2348,13 +2390,10 @@
       <c r="H54" t="s">
         <v>14</v>
       </c>
-      <c r="I54" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2363,7 +2402,7 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -2376,14 +2415,11 @@
       </c>
       <c r="H55" t="s">
         <v>14</v>
-      </c>
-      <c r="I55" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2392,7 +2428,7 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="E56" t="s">
         <v>12</v>
@@ -2409,7 +2445,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -2418,7 +2454,7 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -2435,7 +2471,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -2444,7 +2480,7 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -2459,12 +2495,12 @@
         <v>14</v>
       </c>
       <c r="I58" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -2473,7 +2509,7 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -2486,14 +2522,11 @@
       </c>
       <c r="H59" t="s">
         <v>14</v>
-      </c>
-      <c r="I59" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -2502,7 +2535,7 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -2515,11 +2548,14 @@
       </c>
       <c r="H60" t="s">
         <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -2528,7 +2564,7 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -2541,14 +2577,11 @@
       </c>
       <c r="H61" t="s">
         <v>14</v>
-      </c>
-      <c r="I61" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -2557,7 +2590,7 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -2570,11 +2603,14 @@
       </c>
       <c r="H62" t="s">
         <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -2583,7 +2619,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -2600,7 +2636,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -2609,7 +2645,7 @@
         <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -2624,9 +2660,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -2635,7 +2671,7 @@
         <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -2650,9 +2686,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -2661,10 +2697,10 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F66" t="s">
         <v>12</v>
@@ -2675,19 +2711,22 @@
       <c r="H66" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E67" t="s">
         <v>12</v>
@@ -2696,24 +2735,24 @@
         <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
@@ -2722,10 +2761,114 @@
         <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>165</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>84</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
